--- a/Intelligibility/mergedIntelligibility_lda.xlsx
+++ b/Intelligibility/mergedIntelligibility_lda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2918,99 +2918,6 @@
         <v>0.09033094346523279</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>0.5358027219772339</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.4485573768615722</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5534225106239319</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0929650664329528</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.09133958071470261</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9999032616615297</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.5564745664596558</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5361667275428772</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5599714517593384</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.1171931028366088</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.9965267181396484</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.09644778072834009</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.0975399538874626</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.2565504610538482</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.1966400146484375</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.5182271599769592</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0809487700462341</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.5479758381843567</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.09213335067033759</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.541912317276001</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.5375498533248901</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.9994684457778932</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.5425695776939392</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.4068693220615387</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.1209790706634521</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.5373843312263489</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.9997923374176024</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.1127461120486259</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.0668625235557556</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.5432066917419434</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
